--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t xml:space="preserve">Password </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1XdU8Q</t>
   </si>
   <si>
     <t xml:space="preserve">The password to log into the ACME system </t>
@@ -296,7 +293,7 @@
   <dimension ref="A1:Z11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -368,19 +365,16 @@
       <c r="A8" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="C8" s="0" t="s">
         <v>10</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>12</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1440,178 +1434,178 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>5000</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>30000</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>120000</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="C9" s="0" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>1000</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>15000</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>60000</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0.6</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>0.8</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0.9</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="C19" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="C20" s="0" t="s">
         <v>41</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="C21" s="0" t="s">
         <v>44</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="C22" s="0" t="s">
         <v>47</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="C23" s="0" t="s">
         <v>50</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2624,10 +2618,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
